--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1308475.072525944</v>
+        <v>1372295.818617226</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18142616.70954774</v>
+        <v>16659530.99074006</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2060125.517083134</v>
+        <v>606553.2040797183</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6251299.787331958</v>
+        <v>6729963.10824856</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>218.276543009479</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
@@ -725,7 +727,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>67.51032980895299</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>137.8834167598883</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>45.10878876340928</v>
+        <v>331.0095440659508</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1099,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>67.4289457920829</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1117,10 +1119,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>81.0109880549457</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>421.7000409426931</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
@@ -1142,16 +1144,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>36.97715937730158</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1293,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>97.2069074219896</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -1300,10 +1302,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>90.30617524481291</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1367,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>425.8328865002052</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>403.8720952516284</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1540,7 +1542,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -1576,13 +1578,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>46.22530271040065</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1591,7 +1593,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>19.80087630034418</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1610,16 +1612,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>354.9648390533865</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1658,13 +1660,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>217.4958257956222</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1768,13 +1770,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>120.1472970361154</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1828,7 +1830,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>120.4898091149247</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1904,7 +1906,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.8069000430781</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -2005,7 +2007,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2017,7 +2019,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>3.423392126084468</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735226156</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2081,7 +2083,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884122</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -2132,7 +2134,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>181.1112426721144</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2257,7 +2259,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2299,13 +2301,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695672</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>16.92574903169355</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2488,10 +2490,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>140.28505965292</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2722,7 +2724,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>54.49360828358933</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
@@ -2731,7 +2733,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>13.99728392830417</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2962,7 +2964,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>41.00451938202536</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
@@ -2998,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3013,7 +3015,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3190,7 +3192,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>73.29899740799657</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3205,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3442,7 +3444,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3484,10 +3486,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>125.1716544454844</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3566,7 +3568,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864836</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -3667,7 +3669,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -3676,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>28.46824604904392</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,10 +3717,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>193.8659438253767</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3743,19 +3745,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>17.5511538153569</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -3788,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>208.4454878080893</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -3952,7 +3954,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>52.51170991984834</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3961,7 +3963,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>41.00451938202642</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3977,7 +3979,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>127.8404938411983</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -3989,13 +3991,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,16 +4033,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>63.02341241304593</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4147,10 +4149,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>94.21878984361641</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4192,10 +4194,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>166.3197703738371</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1671.95961582883</v>
+        <v>648.8602641703441</v>
       </c>
       <c r="C2" t="n">
-        <v>1637.857547052657</v>
+        <v>428.3789075951127</v>
       </c>
       <c r="D2" t="n">
-        <v>1605.988166267505</v>
+        <v>396.5095268099613</v>
       </c>
       <c r="E2" t="n">
-        <v>1172.213421425801</v>
+        <v>366.7751860086605</v>
       </c>
       <c r="F2" t="n">
-        <v>744.3459918350084</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G2" t="n">
         <v>342.9481604582723</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148855</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J2" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K2" t="n">
-        <v>53.40121652862856</v>
+        <v>714.241271070407</v>
       </c>
       <c r="L2" t="n">
-        <v>53.40121652862856</v>
+        <v>714.241271070407</v>
       </c>
       <c r="M2" t="n">
-        <v>53.40121652862856</v>
+        <v>714.241271070407</v>
       </c>
       <c r="N2" t="n">
-        <v>632.7278666362198</v>
+        <v>714.241271070407</v>
       </c>
       <c r="O2" t="n">
-        <v>1293.567921177998</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719776</v>
+        <v>2035.921380153964</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V2" t="n">
-        <v>2586.408952615265</v>
+        <v>2307.443876365255</v>
       </c>
       <c r="W2" t="n">
-        <v>2181.553498026298</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X2" t="n">
-        <v>1762.411034605609</v>
+        <v>1483.445958355599</v>
       </c>
       <c r="Y2" t="n">
-        <v>1694.218782273333</v>
+        <v>1075.159834655252</v>
       </c>
     </row>
     <row r="3">
@@ -4386,13 +4388,13 @@
         <v>1512.992809943912</v>
       </c>
       <c r="C3" t="n">
-        <v>1406.536348780554</v>
+        <v>1406.536348780555</v>
       </c>
       <c r="D3" t="n">
-        <v>1311.446059927107</v>
+        <v>1311.446059927108</v>
       </c>
       <c r="E3" t="n">
-        <v>1217.325645254061</v>
+        <v>1217.325645254062</v>
       </c>
       <c r="F3" t="n">
         <v>1133.941806870223</v>
@@ -4401,7 +4403,7 @@
         <v>1048.556717136407</v>
       </c>
       <c r="H3" t="n">
-        <v>1006.821064952619</v>
+        <v>1006.82106495262</v>
       </c>
       <c r="I3" t="n">
         <v>1032.884738113077</v>
@@ -4410,22 +4412,22 @@
         <v>1357.443063079289</v>
       </c>
       <c r="K3" t="n">
-        <v>1357.443063079289</v>
+        <v>1892.04799379531</v>
       </c>
       <c r="L3" t="n">
-        <v>1357.443063079289</v>
+        <v>1892.04799379531</v>
       </c>
       <c r="M3" t="n">
-        <v>1357.443063079289</v>
+        <v>1892.04799379531</v>
       </c>
       <c r="N3" t="n">
-        <v>1357.443063079289</v>
+        <v>1892.04799379531</v>
       </c>
       <c r="O3" t="n">
-        <v>1357.443063079289</v>
+        <v>1892.04799379531</v>
       </c>
       <c r="P3" t="n">
-        <v>2012.149109705013</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="Q3" t="n">
         <v>2552.888048337089</v>
@@ -4443,13 +4445,13 @@
         <v>2300.090198210381</v>
       </c>
       <c r="V3" t="n">
-        <v>2100.97268027238</v>
+        <v>2100.972680272381</v>
       </c>
       <c r="W3" t="n">
-        <v>1915.649926005574</v>
+        <v>1915.649926005575</v>
       </c>
       <c r="X3" t="n">
-        <v>1760.782490244454</v>
+        <v>1760.782490244455</v>
       </c>
       <c r="Y3" t="n">
         <v>1634.296711023675</v>
@@ -4462,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>933.2958513705994</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C4" t="n">
-        <v>933.2958513705994</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D4" t="n">
         <v>794.0196728252577</v>
@@ -4483,7 +4485,7 @@
         <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
@@ -4498,7 +4500,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O4" t="n">
         <v>2154.361157596754</v>
@@ -4510,28 +4512,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434796</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013251</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U4" t="n">
-        <v>1965.089189266357</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136787</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W4" t="n">
-        <v>1406.107276723079</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X4" t="n">
-        <v>1160.715522056491</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y4" t="n">
-        <v>933.2958513705994</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1789.095648603258</v>
+        <v>978.7890572316417</v>
       </c>
       <c r="C5" t="n">
-        <v>1350.953175786681</v>
+        <v>944.6869884554691</v>
       </c>
       <c r="D5" t="n">
-        <v>915.0433909611256</v>
+        <v>912.8176076703177</v>
       </c>
       <c r="E5" t="n">
-        <v>481.2686461194208</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F5" t="n">
-        <v>53.40121652862856</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>53.40121652862856</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>53.40121652862856</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>714.2412710704069</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>1375.081325612185</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>1375.081325612185</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>2035.921380153963</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
         <v>2500.906761678371</v>
@@ -4592,25 +4594,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V5" t="n">
-        <v>2670.060826431428</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W5" t="n">
-        <v>2669.245775882865</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X5" t="n">
-        <v>2623.681342788512</v>
+        <v>1005.293943336088</v>
       </c>
       <c r="Y5" t="n">
-        <v>2215.395219088166</v>
+        <v>1001.048223676145</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4643,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>714.2412710704069</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>1058.729261281022</v>
+        <v>938.6281453713194</v>
       </c>
       <c r="P6" t="n">
-        <v>1058.729261281022</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="Q6" t="n">
         <v>1599.468199913098</v>
@@ -4735,7 +4737,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O7" t="n">
         <v>2154.361157596754</v>
@@ -4747,25 +4749,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2670.060826431428</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>2424.181380009883</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U7" t="n">
-        <v>2356.071333755254</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>2069.115825625685</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W7" t="n">
-        <v>1797.089421211977</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1551.697666545389</v>
+        <v>1324.277995859497</v>
       </c>
       <c r="Y7" t="n">
         <v>1324.277995859497</v>
@@ -4778,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1373.289198434989</v>
+        <v>2190.493479979994</v>
       </c>
       <c r="C8" t="n">
-        <v>947.3295611191371</v>
+        <v>1752.351007163417</v>
       </c>
       <c r="D8" t="n">
-        <v>511.4197762935816</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="E8" t="n">
-        <v>77.64503145187676</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F8" t="n">
-        <v>53.81800590148855</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>632.7278666362198</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M8" t="n">
-        <v>632.7278666362198</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N8" t="n">
         <v>632.7278666362198</v>
@@ -4829,25 +4831,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>2223.792002549091</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>1818.936547960124</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X8" t="n">
-        <v>1399.794084539435</v>
+        <v>2654.14371650258</v>
       </c>
       <c r="Y8" t="n">
-        <v>1395.548364879493</v>
+        <v>2616.793050464902</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4880,25 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>714.2412710704069</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
         <v>1058.729261281022</v>
@@ -4939,16 +4941,16 @@
         <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>568.9155211348376</v>
+        <v>643.2884372758656</v>
       </c>
       <c r="D10" t="n">
-        <v>403.0375283363603</v>
+        <v>477.4104444773883</v>
       </c>
       <c r="E10" t="n">
-        <v>233.2795245870976</v>
+        <v>307.6524407281256</v>
       </c>
       <c r="F10" t="n">
-        <v>142.0611657539532</v>
+        <v>307.6524407281256</v>
       </c>
       <c r="G10" t="n">
         <v>142.0611657539532</v>
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2038.847578183741</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C11" t="n">
-        <v>2038.847578183741</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D11" t="n">
-        <v>1608.713349395655</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E11" t="n">
-        <v>1174.93860455395</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F11" t="n">
-        <v>747.0711749631575</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G11" t="n">
-        <v>345.6733435864214</v>
+        <v>383.3170432484973</v>
       </c>
       <c r="H11" t="n">
-        <v>56.54318902963762</v>
+        <v>94.18688869171359</v>
       </c>
       <c r="I11" t="n">
-        <v>56.12639965677762</v>
+        <v>93.7700993188536</v>
       </c>
       <c r="J11" t="n">
-        <v>491.3810871096955</v>
+        <v>93.7700993188536</v>
       </c>
       <c r="K11" t="n">
-        <v>1185.945282862318</v>
+        <v>93.7700993188536</v>
       </c>
       <c r="L11" t="n">
-        <v>1396.102936374607</v>
+        <v>1168.830065571713</v>
       </c>
       <c r="M11" t="n">
-        <v>1396.102936374607</v>
+        <v>1168.830065571713</v>
       </c>
       <c r="N11" t="n">
-        <v>1396.102936374607</v>
+        <v>2294.56104900816</v>
       </c>
       <c r="O11" t="n">
-        <v>1396.102936374607</v>
+        <v>3274.740715578466</v>
       </c>
       <c r="P11" t="n">
-        <v>2090.667132127229</v>
+        <v>4103.050590411862</v>
       </c>
       <c r="Q11" t="n">
-        <v>2637.165918085824</v>
+        <v>4649.549376370457</v>
       </c>
       <c r="R11" t="n">
-        <v>2806.319982838881</v>
+        <v>4688.50496594268</v>
       </c>
       <c r="S11" t="n">
-        <v>2806.319982838881</v>
+        <v>4604.853092126516</v>
       </c>
       <c r="T11" t="n">
-        <v>2806.319982838881</v>
+        <v>4384.785864999555</v>
       </c>
       <c r="U11" t="n">
-        <v>2806.319982838881</v>
+        <v>4125.563562316572</v>
       </c>
       <c r="V11" t="n">
-        <v>2443.703032772708</v>
+        <v>3762.946612250398</v>
       </c>
       <c r="W11" t="n">
-        <v>2038.847578183741</v>
+        <v>3762.946612250398</v>
       </c>
       <c r="X11" t="n">
-        <v>2038.847578183741</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y11" t="n">
-        <v>2038.847578183741</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C12" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467886</v>
       </c>
       <c r="D12" t="n">
-        <v>360.751394631266</v>
+        <v>398.3950942933419</v>
       </c>
       <c r="E12" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202956</v>
       </c>
       <c r="F12" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364572</v>
       </c>
       <c r="G12" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026411</v>
       </c>
       <c r="H12" t="n">
-        <v>56.12639965677762</v>
+        <v>93.7700993188536</v>
       </c>
       <c r="I12" t="n">
-        <v>56.12639965677762</v>
+        <v>93.7700993188536</v>
       </c>
       <c r="J12" t="n">
-        <v>380.68472462299</v>
+        <v>418.328424285066</v>
       </c>
       <c r="K12" t="n">
-        <v>1061.418244693367</v>
+        <v>418.328424285066</v>
       </c>
       <c r="L12" t="n">
-        <v>1061.418244693367</v>
+        <v>1372.87147309617</v>
       </c>
       <c r="M12" t="n">
-        <v>1061.418244693367</v>
+        <v>1372.87147309617</v>
       </c>
       <c r="N12" t="n">
-        <v>1061.418244693367</v>
+        <v>1372.87147309617</v>
       </c>
       <c r="O12" t="n">
-        <v>1061.418244693367</v>
+        <v>1372.87147309617</v>
       </c>
       <c r="P12" t="n">
-        <v>1061.454444409171</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="Q12" t="n">
-        <v>1602.193383041247</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="R12" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S12" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T12" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V12" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W12" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y12" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>969.5932852944866</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C13" t="n">
-        <v>797.0315737777115</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D13" t="n">
-        <v>631.1535809792342</v>
+        <v>834.3885556154826</v>
       </c>
       <c r="E13" t="n">
-        <v>461.3955772299715</v>
+        <v>664.6305518662199</v>
       </c>
       <c r="F13" t="n">
-        <v>284.6885231917278</v>
+        <v>487.9234978279761</v>
       </c>
       <c r="G13" t="n">
-        <v>284.6885231917278</v>
+        <v>322.3322228538037</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7863488821023</v>
+        <v>182.4300485441782</v>
       </c>
       <c r="I13" t="n">
-        <v>56.12639965677762</v>
+        <v>93.7700993188536</v>
       </c>
       <c r="J13" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835434</v>
       </c>
       <c r="K13" t="n">
-        <v>417.4645393926031</v>
+        <v>455.108239054679</v>
       </c>
       <c r="L13" t="n">
-        <v>835.6744211605641</v>
+        <v>873.31812082264</v>
       </c>
       <c r="M13" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N13" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O13" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P13" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q13" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2651.368188264949</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S13" t="n">
-        <v>2492.126819562946</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="T13" t="n">
-        <v>2246.247373141401</v>
+        <v>2443.13244150548</v>
       </c>
       <c r="U13" t="n">
-        <v>1967.814372394506</v>
+        <v>2396.440216545479</v>
       </c>
       <c r="V13" t="n">
-        <v>1680.858864264937</v>
+        <v>2109.48470841591</v>
       </c>
       <c r="W13" t="n">
-        <v>1408.832459851228</v>
+        <v>1837.458304002201</v>
       </c>
       <c r="X13" t="n">
-        <v>1388.831574699366</v>
+        <v>1592.066549335614</v>
       </c>
       <c r="Y13" t="n">
-        <v>1161.411904013474</v>
+        <v>1364.646878649722</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>928.0436173150591</v>
+        <v>2188.014873871651</v>
       </c>
       <c r="C14" t="n">
-        <v>489.9011444984824</v>
+        <v>1749.872401055075</v>
       </c>
       <c r="D14" t="n">
-        <v>489.9011444984824</v>
+        <v>1313.962616229519</v>
       </c>
       <c r="E14" t="n">
-        <v>56.12639965677762</v>
+        <v>880.1878713878141</v>
       </c>
       <c r="F14" t="n">
-        <v>56.12639965677762</v>
+        <v>452.3204417970218</v>
       </c>
       <c r="G14" t="n">
-        <v>56.12639965677762</v>
+        <v>93.7700993188536</v>
       </c>
       <c r="H14" t="n">
-        <v>56.12639965677762</v>
+        <v>93.7700993188536</v>
       </c>
       <c r="I14" t="n">
-        <v>56.12639965677762</v>
+        <v>93.7700993188536</v>
       </c>
       <c r="J14" t="n">
-        <v>491.3810871096955</v>
+        <v>529.0247867717715</v>
       </c>
       <c r="K14" t="n">
-        <v>1185.945282862318</v>
+        <v>1363.375078729949</v>
       </c>
       <c r="L14" t="n">
-        <v>1185.945282862318</v>
+        <v>1363.375078729949</v>
       </c>
       <c r="M14" t="n">
-        <v>1185.945282862318</v>
+        <v>1363.375078729949</v>
       </c>
       <c r="N14" t="n">
-        <v>1185.945282862318</v>
+        <v>2164.362573827326</v>
       </c>
       <c r="O14" t="n">
-        <v>1396.102936374607</v>
+        <v>3144.542240397632</v>
       </c>
       <c r="P14" t="n">
-        <v>2090.667132127229</v>
+        <v>3972.852115231028</v>
       </c>
       <c r="Q14" t="n">
-        <v>2637.165918085824</v>
+        <v>4519.350901189623</v>
       </c>
       <c r="R14" t="n">
-        <v>2806.319982838881</v>
+        <v>4688.50496594268</v>
       </c>
       <c r="S14" t="n">
-        <v>2806.319982838881</v>
+        <v>4688.50496594268</v>
       </c>
       <c r="T14" t="n">
-        <v>2806.319982838881</v>
+        <v>4468.437738815718</v>
       </c>
       <c r="U14" t="n">
-        <v>2806.319982838881</v>
+        <v>4209.215436132735</v>
       </c>
       <c r="V14" t="n">
-        <v>2586.62722950997</v>
+        <v>3846.598486066561</v>
       </c>
       <c r="W14" t="n">
-        <v>2181.771774921003</v>
+        <v>3441.743031477595</v>
       </c>
       <c r="X14" t="n">
-        <v>1762.629311500314</v>
+        <v>3022.600568056906</v>
       </c>
       <c r="Y14" t="n">
-        <v>1354.343187799967</v>
+        <v>2614.314444356559</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C15" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467886</v>
       </c>
       <c r="D15" t="n">
-        <v>360.751394631266</v>
+        <v>398.3950942933419</v>
       </c>
       <c r="E15" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202956</v>
       </c>
       <c r="F15" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364572</v>
       </c>
       <c r="G15" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026411</v>
       </c>
       <c r="H15" t="n">
-        <v>56.12639965677762</v>
+        <v>93.7700993188536</v>
       </c>
       <c r="I15" t="n">
-        <v>56.12639965677762</v>
+        <v>119.8337724793112</v>
       </c>
       <c r="J15" t="n">
-        <v>56.12639965677762</v>
+        <v>444.3920974455235</v>
       </c>
       <c r="K15" t="n">
-        <v>736.8599197271549</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L15" t="n">
-        <v>1024.801965382963</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M15" t="n">
-        <v>1024.801965382963</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N15" t="n">
-        <v>1024.801965382963</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O15" t="n">
-        <v>1024.801965382963</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P15" t="n">
-        <v>1719.366161135586</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q15" t="n">
-        <v>1719.366161135586</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S15" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T15" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V15" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W15" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y15" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1135.184560268659</v>
+        <v>781.8461154418374</v>
       </c>
       <c r="C16" t="n">
-        <v>962.6228487518839</v>
+        <v>609.2844039250623</v>
       </c>
       <c r="D16" t="n">
-        <v>796.7448559534066</v>
+        <v>487.9234978279761</v>
       </c>
       <c r="E16" t="n">
-        <v>626.9868522041439</v>
+        <v>487.9234978279761</v>
       </c>
       <c r="F16" t="n">
-        <v>450.2797981659001</v>
+        <v>487.9234978279761</v>
       </c>
       <c r="G16" t="n">
-        <v>284.6885231917278</v>
+        <v>322.3322228538037</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7863488821023</v>
+        <v>182.4300485441782</v>
       </c>
       <c r="I16" t="n">
-        <v>56.12639965677762</v>
+        <v>93.7700993188536</v>
       </c>
       <c r="J16" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835434</v>
       </c>
       <c r="K16" t="n">
-        <v>417.4645393926031</v>
+        <v>455.108239054679</v>
       </c>
       <c r="L16" t="n">
-        <v>835.6744211605641</v>
+        <v>873.31812082264</v>
       </c>
       <c r="M16" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N16" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O16" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P16" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q16" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2672.786009559577</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S16" t="n">
-        <v>2513.544640857574</v>
+        <v>2529.770519225021</v>
       </c>
       <c r="T16" t="n">
-        <v>2513.544640857574</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U16" t="n">
-        <v>2235.111640110679</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V16" t="n">
-        <v>1948.15613198111</v>
+        <v>1718.502563927012</v>
       </c>
       <c r="W16" t="n">
-        <v>1676.129727567401</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X16" t="n">
-        <v>1554.422849673538</v>
+        <v>1201.084404846716</v>
       </c>
       <c r="Y16" t="n">
-        <v>1327.003178987646</v>
+        <v>973.6647341608245</v>
       </c>
     </row>
     <row r="17">
@@ -5513,28 +5515,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>557.2627364873778</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.925785934734</v>
+        <v>1632.322702740237</v>
       </c>
       <c r="M17" t="n">
-        <v>2446.925785934734</v>
+        <v>1632.322702740237</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
@@ -5552,13 +5554,13 @@
         <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5595,22 +5597,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
         <v>1648.327823655249</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477067</v>
       </c>
       <c r="C19" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309316</v>
       </c>
       <c r="D19" t="n">
-        <v>617.7751448769883</v>
+        <v>614.3171730324543</v>
       </c>
       <c r="E19" t="n">
-        <v>448.0171411277256</v>
+        <v>444.5591692831915</v>
       </c>
       <c r="F19" t="n">
-        <v>271.3100870894817</v>
+        <v>267.8521152449478</v>
       </c>
       <c r="G19" t="n">
-        <v>105.7188121153094</v>
+        <v>102.2608402707754</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707754</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5695,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130891</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.801834709346</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962451</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832882</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419173</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.995166752586</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066694</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
         <v>2090.757574835212</v>
@@ -5756,13 +5758,13 @@
         <v>936.6111322289576</v>
       </c>
       <c r="L20" t="n">
-        <v>1850.083528321677</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M20" t="n">
-        <v>3007.131363532228</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N20" t="n">
-        <v>4132.862346968675</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O20" t="n">
         <v>5113.042013538981</v>
@@ -5780,22 +5782,22 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5831,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J21" t="n">
-        <v>405.0384966383147</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K21" t="n">
-        <v>405.0384966383147</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L21" t="n">
-        <v>405.0384966383147</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M21" t="n">
-        <v>405.0384966383147</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N21" t="n">
-        <v>405.0384966383147</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O21" t="n">
-        <v>405.0384966383147</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P21" t="n">
-        <v>1224.761663117513</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q21" t="n">
         <v>1765.500601749588</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>3486.780615022739</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>3314.218903505964</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>3148.340910707486</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>2978.582906958224</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>2801.87585291998</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>2636.284577945808</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I22" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J22" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K22" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L22" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M22" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S22" t="n">
-        <v>2718.920450173579</v>
+        <v>4953.800644836978</v>
       </c>
       <c r="T22" t="n">
-        <v>2473.041003752034</v>
+        <v>4707.921198415434</v>
       </c>
       <c r="U22" t="n">
-        <v>2194.608003005139</v>
+        <v>4429.488197668539</v>
       </c>
       <c r="V22" t="n">
-        <v>1907.65249487557</v>
+        <v>4142.53268953897</v>
       </c>
       <c r="W22" t="n">
-        <v>1635.626090461865</v>
+        <v>4142.53268953897</v>
       </c>
       <c r="X22" t="n">
-        <v>1390.234335795278</v>
+        <v>3897.140934872382</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>3669.721264186491</v>
       </c>
     </row>
     <row r="23">
@@ -5975,25 +5977,25 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M23" t="n">
         <v>2588.899621423627</v>
@@ -6069,22 +6071,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K24" t="n">
-        <v>782.9943603411569</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="L24" t="n">
-        <v>782.9943603411569</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="M24" t="n">
-        <v>782.9943603411569</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="N24" t="n">
-        <v>782.9943603411569</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="O24" t="n">
-        <v>782.9943603411569</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="P24" t="n">
-        <v>1602.717526820355</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q24" t="n">
         <v>1765.500601749588</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3462.891420506061</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>3290.329708989286</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>3124.451716190809</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>2954.693712441546</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>2777.986658403302</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>2636.284577945808</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O25" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P25" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q25" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>5091.624192244353</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>4932.38282354235</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>4686.503377120805</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>4686.503377120805</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>4399.547868991236</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>4127.521464577528</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>3882.12970991094</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>3654.710039225049</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6214,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6300,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J27" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P27" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q27" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>970.9960463903949</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C28" t="n">
-        <v>798.4343348736198</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D28" t="n">
-        <v>632.5563420751425</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E28" t="n">
-        <v>462.7983383258798</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T28" t="n">
-        <v>2473.041003752034</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U28" t="n">
-        <v>2194.608003005139</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V28" t="n">
-        <v>1907.65249487557</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W28" t="n">
-        <v>1635.626090461861</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X28" t="n">
-        <v>1390.234335795274</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y28" t="n">
-        <v>1162.814665109382</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6464,25 +6466,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688178</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321677</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532228</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968675</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6500,13 +6502,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051464</v>
       </c>
       <c r="C30" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888106</v>
       </c>
       <c r="D30" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034659</v>
       </c>
       <c r="E30" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361613</v>
       </c>
       <c r="F30" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977775</v>
       </c>
       <c r="G30" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.537904243959</v>
       </c>
       <c r="H30" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060171</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>3475.865925220629</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>3800.424250186841</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="M30" t="n">
-        <v>531.6733301892817</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="N30" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>4995.86923544464</v>
       </c>
       <c r="R30" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S30" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987363</v>
       </c>
       <c r="T30" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317965</v>
       </c>
       <c r="U30" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317933</v>
       </c>
       <c r="V30" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379932</v>
       </c>
       <c r="W30" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113126</v>
       </c>
       <c r="X30" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352006</v>
       </c>
       <c r="Y30" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131227</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1057.146432354979</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C31" t="n">
-        <v>884.5847208382039</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>718.7067280397266</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>548.9487242904638</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>372.24167025222</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H31" t="n">
         <v>190.9207894961043</v>
@@ -6646,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303136</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.411126173566</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W31" t="n">
-        <v>1476.384721759858</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X31" t="n">
-        <v>1476.384721759858</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y31" t="n">
-        <v>1248.965051073966</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6701,22 +6703,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q32" t="n">
         <v>5113.04201353898</v>
@@ -6737,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="33">
@@ -6786,7 +6788,7 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M33" t="n">
-        <v>1300.985674363279</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N33" t="n">
         <v>1765.500601749588</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>949.5782250957668</v>
+        <v>3346.878440713113</v>
       </c>
       <c r="C34" t="n">
-        <v>777.0165135789917</v>
+        <v>3174.316729196338</v>
       </c>
       <c r="D34" t="n">
-        <v>702.9771222577831</v>
+        <v>3008.438736397861</v>
       </c>
       <c r="E34" t="n">
-        <v>533.2191185085204</v>
+        <v>2838.680732648598</v>
       </c>
       <c r="F34" t="n">
-        <v>356.5120644702766</v>
+        <v>2661.973678610354</v>
       </c>
       <c r="G34" t="n">
-        <v>190.9207894961043</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I34" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J34" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K34" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L34" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M34" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N34" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O34" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P34" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q34" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.502628878951</v>
+        <v>5094.802844496297</v>
       </c>
       <c r="T34" t="n">
-        <v>2451.623182457406</v>
+        <v>4848.923398074752</v>
       </c>
       <c r="U34" t="n">
-        <v>2173.190181710511</v>
+        <v>4570.490397327858</v>
       </c>
       <c r="V34" t="n">
-        <v>1886.234673580942</v>
+        <v>4283.534889198289</v>
       </c>
       <c r="W34" t="n">
-        <v>1614.208269167233</v>
+        <v>4011.50848478458</v>
       </c>
       <c r="X34" t="n">
-        <v>1368.816514500646</v>
+        <v>3766.116730117992</v>
       </c>
       <c r="Y34" t="n">
-        <v>1141.396843814754</v>
+        <v>3538.697059432101</v>
       </c>
     </row>
     <row r="35">
@@ -6923,40 +6925,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="N35" t="n">
-        <v>3572.656769371182</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O35" t="n">
-        <v>4397.38916282733</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7011,10 +7013,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2970399865835</v>
       </c>
       <c r="J36" t="n">
-        <v>452.8828383974496</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K36" t="n">
         <v>1107.588885023173</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.319000882661</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008508</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.993304878938</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W37" t="n">
-        <v>1726.993304878938</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X37" t="n">
-        <v>1600.55729028754</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y37" t="n">
-        <v>1373.137619601648</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="38">
@@ -7151,16 +7153,16 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
         <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
         <v>391.8077842004234</v>
@@ -7172,28 +7174,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>475.2748675296863</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>475.2748675296863</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>1632.322702740237</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R38" t="n">
         <v>5113.042013538981</v>
@@ -7214,10 +7216,10 @@
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>811.7546776883914</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C40" t="n">
-        <v>639.1929661716164</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D40" t="n">
-        <v>473.3149733731391</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E40" t="n">
-        <v>473.3149733731391</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
-        <v>296.6079193348953</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>131.016644360723</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354734</v>
       </c>
       <c r="K40" t="n">
-        <v>463.598980006605</v>
+        <v>463.598980006609</v>
       </c>
       <c r="L40" t="n">
-        <v>881.8088617745661</v>
+        <v>881.80886177457</v>
       </c>
       <c r="M40" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N40" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113128</v>
       </c>
       <c r="O40" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P40" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q40" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2559.67908147158</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>2313.799635050035</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303136</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173566</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W40" t="n">
-        <v>1476.384721759858</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X40" t="n">
-        <v>1230.99296709327</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y40" t="n">
-        <v>1003.573296407379</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1356.327836278711</v>
+        <v>2104.363000055488</v>
       </c>
       <c r="C41" t="n">
-        <v>918.1853634621348</v>
+        <v>1666.220527238911</v>
       </c>
       <c r="D41" t="n">
-        <v>918.1853634621348</v>
+        <v>1230.310742413356</v>
       </c>
       <c r="E41" t="n">
-        <v>484.4106186204299</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F41" t="n">
-        <v>56.54318902963762</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G41" t="n">
-        <v>56.54318902963762</v>
+        <v>383.3170432484973</v>
       </c>
       <c r="H41" t="n">
-        <v>56.54318902963762</v>
+        <v>94.18688869171359</v>
       </c>
       <c r="I41" t="n">
-        <v>56.12639965677762</v>
+        <v>93.7700993188536</v>
       </c>
       <c r="J41" t="n">
-        <v>56.12639965677762</v>
+        <v>529.0247867717715</v>
       </c>
       <c r="K41" t="n">
-        <v>56.12639965677762</v>
+        <v>1363.375078729949</v>
       </c>
       <c r="L41" t="n">
-        <v>750.6905954094007</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M41" t="n">
-        <v>1445.254791162024</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N41" t="n">
-        <v>2139.818986914646</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O41" t="n">
-        <v>2806.319982838881</v>
+        <v>3313.696305150689</v>
       </c>
       <c r="P41" t="n">
-        <v>2806.319982838881</v>
+        <v>4142.006179984085</v>
       </c>
       <c r="Q41" t="n">
-        <v>2806.319982838881</v>
+        <v>4688.50496594268</v>
       </c>
       <c r="R41" t="n">
-        <v>2806.319982838881</v>
+        <v>4688.50496594268</v>
       </c>
       <c r="S41" t="n">
-        <v>2806.319982838881</v>
+        <v>4604.853092126516</v>
       </c>
       <c r="T41" t="n">
-        <v>2806.319982838881</v>
+        <v>4384.785864999555</v>
       </c>
       <c r="U41" t="n">
-        <v>2806.319982838881</v>
+        <v>4125.563562316572</v>
       </c>
       <c r="V41" t="n">
-        <v>2595.768985052932</v>
+        <v>3762.946612250398</v>
       </c>
       <c r="W41" t="n">
-        <v>2190.913530463966</v>
+        <v>3358.091157661432</v>
       </c>
       <c r="X41" t="n">
-        <v>2190.913530463966</v>
+        <v>2938.948694240742</v>
       </c>
       <c r="Y41" t="n">
-        <v>1782.627406763619</v>
+        <v>2530.662570540396</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C42" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467886</v>
       </c>
       <c r="D42" t="n">
-        <v>360.751394631266</v>
+        <v>398.3950942933419</v>
       </c>
       <c r="E42" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202956</v>
       </c>
       <c r="F42" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364572</v>
       </c>
       <c r="G42" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026411</v>
       </c>
       <c r="H42" t="n">
-        <v>56.12639965677762</v>
+        <v>93.7700993188536</v>
       </c>
       <c r="I42" t="n">
-        <v>56.12639965677762</v>
+        <v>119.8337724793112</v>
       </c>
       <c r="J42" t="n">
-        <v>56.12639965677762</v>
+        <v>444.3920974455235</v>
       </c>
       <c r="K42" t="n">
-        <v>56.12639965677762</v>
+        <v>444.3920974455235</v>
       </c>
       <c r="L42" t="n">
-        <v>56.12639965677762</v>
+        <v>444.3920974455235</v>
       </c>
       <c r="M42" t="n">
-        <v>330.2377696303402</v>
+        <v>444.3920974455235</v>
       </c>
       <c r="N42" t="n">
-        <v>1024.801965382963</v>
+        <v>444.3920974455235</v>
       </c>
       <c r="O42" t="n">
-        <v>1719.366161135586</v>
+        <v>444.3920974455235</v>
       </c>
       <c r="P42" t="n">
-        <v>1719.366161135586</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q42" t="n">
-        <v>1719.366161135586</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S42" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T42" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V42" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W42" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y42" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>969.5932852944866</v>
+        <v>2985.312241677589</v>
       </c>
       <c r="C43" t="n">
-        <v>797.0315737777115</v>
+        <v>2812.750530160814</v>
       </c>
       <c r="D43" t="n">
-        <v>631.1535809792342</v>
+        <v>2646.872537362337</v>
       </c>
       <c r="E43" t="n">
-        <v>461.3955772299715</v>
+        <v>2477.114533613074</v>
       </c>
       <c r="F43" t="n">
-        <v>284.6885231917278</v>
+        <v>2300.40747957483</v>
       </c>
       <c r="G43" t="n">
-        <v>284.6885231917278</v>
+        <v>2300.40747957483</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7863488821023</v>
+        <v>2160.505305265205</v>
       </c>
       <c r="I43" t="n">
-        <v>56.12639965677762</v>
+        <v>2071.84535603988</v>
       </c>
       <c r="J43" t="n">
-        <v>142.7060848214675</v>
+        <v>2158.42504120457</v>
       </c>
       <c r="K43" t="n">
-        <v>417.4645393926031</v>
+        <v>2433.183495775706</v>
       </c>
       <c r="L43" t="n">
-        <v>835.6744211605641</v>
+        <v>2851.393377543667</v>
       </c>
       <c r="M43" t="n">
-        <v>1295.158288341477</v>
+        <v>3310.87724472458</v>
       </c>
       <c r="N43" t="n">
-        <v>1737.417091499122</v>
+        <v>3753.136047882224</v>
       </c>
       <c r="O43" t="n">
-        <v>2157.086340724903</v>
+        <v>4172.805297108006</v>
       </c>
       <c r="P43" t="n">
-        <v>2504.593234695245</v>
+        <v>4520.312191078347</v>
       </c>
       <c r="Q43" t="n">
-        <v>2672.786009559577</v>
+        <v>4688.50496594268</v>
       </c>
       <c r="R43" t="n">
-        <v>2651.368188264949</v>
+        <v>4688.50496594268</v>
       </c>
       <c r="S43" t="n">
-        <v>2492.126819562946</v>
+        <v>4529.263597240676</v>
       </c>
       <c r="T43" t="n">
-        <v>2246.247373141401</v>
+        <v>4283.384150819132</v>
       </c>
       <c r="U43" t="n">
-        <v>2193.205241909231</v>
+        <v>4004.951150072237</v>
       </c>
       <c r="V43" t="n">
-        <v>1906.249733779661</v>
+        <v>3717.995641942668</v>
       </c>
       <c r="W43" t="n">
-        <v>1634.223329365953</v>
+        <v>3445.969237528959</v>
       </c>
       <c r="X43" t="n">
-        <v>1388.831574699366</v>
+        <v>3404.550531082468</v>
       </c>
       <c r="Y43" t="n">
-        <v>1161.411904013474</v>
+        <v>3177.130860396576</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1483.226960248497</v>
+        <v>2519.992517327003</v>
       </c>
       <c r="C44" t="n">
-        <v>1354.09514828769</v>
+        <v>2081.850044510426</v>
       </c>
       <c r="D44" t="n">
-        <v>918.1853634621348</v>
+        <v>1645.940259684871</v>
       </c>
       <c r="E44" t="n">
-        <v>484.4106186204299</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F44" t="n">
-        <v>56.54318902963762</v>
+        <v>784.2980852523734</v>
       </c>
       <c r="G44" t="n">
-        <v>56.54318902963762</v>
+        <v>382.9002538756373</v>
       </c>
       <c r="H44" t="n">
-        <v>56.54318902963762</v>
+        <v>93.7700993188536</v>
       </c>
       <c r="I44" t="n">
-        <v>56.12639965677762</v>
+        <v>93.7700993188536</v>
       </c>
       <c r="J44" t="n">
-        <v>176.1286096224173</v>
+        <v>132.725688891076</v>
       </c>
       <c r="K44" t="n">
-        <v>870.6928053750403</v>
+        <v>132.725688891076</v>
       </c>
       <c r="L44" t="n">
-        <v>1565.257001127663</v>
+        <v>1207.785655143935</v>
       </c>
       <c r="M44" t="n">
-        <v>1565.257001127663</v>
+        <v>1207.785655143935</v>
       </c>
       <c r="N44" t="n">
-        <v>1565.257001127663</v>
+        <v>2333.516638580382</v>
       </c>
       <c r="O44" t="n">
-        <v>1565.257001127663</v>
+        <v>3313.696305150689</v>
       </c>
       <c r="P44" t="n">
-        <v>2259.821196880286</v>
+        <v>4142.006179984085</v>
       </c>
       <c r="Q44" t="n">
-        <v>2806.319982838881</v>
+        <v>4688.50496594268</v>
       </c>
       <c r="R44" t="n">
-        <v>2806.319982838881</v>
+        <v>4688.50496594268</v>
       </c>
       <c r="S44" t="n">
-        <v>2722.668109022718</v>
+        <v>4604.853092126516</v>
       </c>
       <c r="T44" t="n">
-        <v>2722.668109022718</v>
+        <v>4604.853092126516</v>
       </c>
       <c r="U44" t="n">
-        <v>2722.668109022718</v>
+        <v>4541.193079588086</v>
       </c>
       <c r="V44" t="n">
-        <v>2722.668109022718</v>
+        <v>4178.576129521913</v>
       </c>
       <c r="W44" t="n">
-        <v>2317.812654433751</v>
+        <v>3773.720674932946</v>
       </c>
       <c r="X44" t="n">
-        <v>2317.812654433751</v>
+        <v>3354.578211512257</v>
       </c>
       <c r="Y44" t="n">
-        <v>1909.526530733404</v>
+        <v>2946.29208781191</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C45" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467886</v>
       </c>
       <c r="D45" t="n">
-        <v>360.751394631266</v>
+        <v>398.3950942933419</v>
       </c>
       <c r="E45" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202956</v>
       </c>
       <c r="F45" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364572</v>
       </c>
       <c r="G45" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026411</v>
       </c>
       <c r="H45" t="n">
-        <v>56.12639965677762</v>
+        <v>93.7700993188536</v>
       </c>
       <c r="I45" t="n">
-        <v>82.19007281723522</v>
+        <v>119.8337724793112</v>
       </c>
       <c r="J45" t="n">
-        <v>406.7483977834476</v>
+        <v>444.3920974455235</v>
       </c>
       <c r="K45" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L45" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M45" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N45" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O45" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P45" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q45" t="n">
-        <v>1602.193383041247</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S45" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T45" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V45" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W45" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y45" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1135.184560268659</v>
+        <v>962.5053054384689</v>
       </c>
       <c r="C46" t="n">
-        <v>962.6228487518839</v>
+        <v>789.9435939216938</v>
       </c>
       <c r="D46" t="n">
-        <v>796.7448559534066</v>
+        <v>624.0656011232165</v>
       </c>
       <c r="E46" t="n">
-        <v>626.9868522041439</v>
+        <v>454.3075973739538</v>
       </c>
       <c r="F46" t="n">
-        <v>450.2797981659001</v>
+        <v>277.60054333571</v>
       </c>
       <c r="G46" t="n">
-        <v>284.6885231917278</v>
+        <v>182.4300485441782</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7863488821023</v>
+        <v>182.4300485441782</v>
       </c>
       <c r="I46" t="n">
-        <v>56.12639965677762</v>
+        <v>93.7700993188536</v>
       </c>
       <c r="J46" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835434</v>
       </c>
       <c r="K46" t="n">
-        <v>417.4645393926031</v>
+        <v>455.108239054679</v>
       </c>
       <c r="L46" t="n">
-        <v>835.6744211605641</v>
+        <v>873.31812082264</v>
       </c>
       <c r="M46" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N46" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O46" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P46" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q46" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2651.368188264949</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S46" t="n">
-        <v>2492.126819562946</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="T46" t="n">
-        <v>2246.247373141401</v>
+        <v>2464.550262800108</v>
       </c>
       <c r="U46" t="n">
-        <v>1967.814372394506</v>
+        <v>2186.117262053213</v>
       </c>
       <c r="V46" t="n">
-        <v>1799.814604340125</v>
+        <v>1899.161753923644</v>
       </c>
       <c r="W46" t="n">
-        <v>1799.814604340125</v>
+        <v>1627.135349509935</v>
       </c>
       <c r="X46" t="n">
-        <v>1554.422849673538</v>
+        <v>1381.743594843348</v>
       </c>
       <c r="Y46" t="n">
-        <v>1327.003178987646</v>
+        <v>1154.323924157456</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7981,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7988,16 +7990,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157522</v>
+        <v>469.6822035600076</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,7 +8060,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>540.0049805212327</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>661.3192390158827</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8213,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="P5" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="N5" t="n">
-        <v>667.5152066078568</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>667.5152066078567</v>
-      </c>
       <c r="Q5" t="n">
-        <v>469.682203560008</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8289,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,19 +8303,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>540.0049805212334</v>
+      </c>
+      <c r="P6" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="N6" t="n">
-        <v>347.9676668794094</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
       <c r="Q6" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8380,7 +8382,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
@@ -8450,19 +8452,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O8" t="n">
         <v>667.515206607857</v>
@@ -8526,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8538,16 +8540,16 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>212.2804580932202</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097202</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>39.34908037598234</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,10 +8771,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0.03656536949870315</v>
+        <v>388.0185734358513</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,7 +8929,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>701.5799957097202</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8936,13 +8938,13 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>809.0782778761379</v>
       </c>
       <c r="O14" t="n">
-        <v>212.2804580932202</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097202</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9000,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L15" t="n">
-        <v>290.8505511674832</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>459.5978749662608</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -9173,7 +9175,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9185,7 +9187,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9245,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9261,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9404,7 +9406,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>922.699389992646</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -9413,7 +9415,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9477,7 +9479,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9486,19 +9488,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>842.7780726850283</v>
@@ -9644,7 +9646,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9717,7 +9719,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>305.8360165328637</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9735,7 +9737,7 @@
         <v>828.0031984638366</v>
       </c>
       <c r="Q24" t="n">
-        <v>164.4273484133669</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -9872,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,34 +9950,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465032</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10133,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>-5.093094960597241e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10209,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10361,7 +10363,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10434,10 +10436,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N33" t="n">
-        <v>469.2069973599082</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10583,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>702.7389601124028</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>833.0630236930783</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10820,19 +10822,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>376.7818457160674</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10844,7 +10846,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,22 +10898,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10920,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>701.5799957097204</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>673.2333292163985</v>
+        <v>884.1022829978583</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11133,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11145,22 +11147,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>276.8801716904673</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>701.5799957097203</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,25 +11296,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>121.2143535006462</v>
+        <v>39.3490803759822</v>
       </c>
       <c r="K44" t="n">
-        <v>701.5799957097203</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>701.5799957097203</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>701.5799957097202</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23255,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>5.71780047709467</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23306,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>11.07894353485403</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23428,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23464,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>229.4233680290251</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>223.1369608195775</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23498,16 +23500,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>42.41901400958221</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
@@ -23546,13 +23548,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>141.4949547698895</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23656,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>44.07191583437717</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>122.448028004997</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>135.0797604404447</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627218</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>8.789189859682864</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>208.2197249473392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24376,10 +24378,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>23.65030257151059</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24610,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>120.446375214272</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>229.4233680290251</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24850,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>122.9308428424052</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24886,10 +24888,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>90.92021546249596</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>34.67467827192567</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>117.7661826744373</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25555,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>110.0349065174853</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,10 +25605,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>81.78272691404899</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25631,19 +25633,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>411.8858435779309</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25676,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>150.5452927574225</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>223.1369608195774</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>201.9333177378952</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25865,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>305.9205542472126</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25919,16 +25921,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>193.6066672431073</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26035,10 +26037,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>69.7165723808142</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>117.7661826744368</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>393011.5508062373</v>
+        <v>556833.5700771643</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>393011.5508062373</v>
+        <v>556833.5700771643</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>593784.5164596263</v>
+        <v>593784.5164596264</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>593784.5164596264</v>
+        <v>593784.5164596263</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>593784.5164596261</v>
+        <v>593784.5164596263</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>593784.5164596263</v>
+        <v>593784.5164596261</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>593784.5164596263</v>
+        <v>593784.5164596264</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>393011.5508062374</v>
+        <v>556833.5700771642</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>393011.5508062373</v>
+        <v>556833.5700771643</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>388706.8069205461</v>
+        <v>388706.8069205462</v>
       </c>
       <c r="C2" t="n">
-        <v>388706.8069205461</v>
+        <v>388706.8069205462</v>
       </c>
       <c r="D2" t="n">
-        <v>388706.8069205462</v>
+        <v>388706.806920546</v>
       </c>
       <c r="E2" t="n">
-        <v>252817.8237739504</v>
+        <v>358201.816466698</v>
       </c>
       <c r="F2" t="n">
-        <v>252817.8237739504</v>
+        <v>358201.816466698</v>
       </c>
       <c r="G2" t="n">
-        <v>381971.7484995806</v>
+        <v>381971.7484995805</v>
       </c>
       <c r="H2" t="n">
-        <v>381971.7484995805</v>
+        <v>381971.7484995804</v>
       </c>
       <c r="I2" t="n">
-        <v>381971.7484995804</v>
+        <v>381971.7484995803</v>
       </c>
       <c r="J2" t="n">
         <v>381971.7484995804</v>
       </c>
       <c r="K2" t="n">
+        <v>381971.7484995804</v>
+      </c>
+      <c r="L2" t="n">
         <v>381971.7484995803</v>
-      </c>
-      <c r="L2" t="n">
-        <v>381971.7484995804</v>
       </c>
       <c r="M2" t="n">
         <v>381971.7484995804</v>
       </c>
       <c r="N2" t="n">
-        <v>381971.7484995804</v>
+        <v>381971.7484995805</v>
       </c>
       <c r="O2" t="n">
-        <v>252817.8237739504</v>
+        <v>358201.816466698</v>
       </c>
       <c r="P2" t="n">
-        <v>252817.8237739503</v>
+        <v>358201.816466698</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840448</v>
+        <v>223699.6985840449</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>10170.99660045615</v>
+        <v>150665.7535717477</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>158059.4769461093</v>
+        <v>29089.8091726081</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177061</v>
+        <v>174651.3487177062</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8489.081703340753</v>
+        <v>125751.0883356905</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,19 +26420,19 @@
         <v>148010.1942457891</v>
       </c>
       <c r="C4" t="n">
+        <v>148010.1942457892</v>
+      </c>
+      <c r="D4" t="n">
         <v>148010.1942457891</v>
       </c>
-      <c r="D4" t="n">
-        <v>148010.1942457892</v>
-      </c>
       <c r="E4" t="n">
-        <v>36113.14695271203</v>
+        <v>51166.46699861006</v>
       </c>
       <c r="F4" t="n">
-        <v>36113.14695271202</v>
+        <v>51166.46699861008</v>
       </c>
       <c r="G4" t="n">
-        <v>54561.82510962277</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="H4" t="n">
         <v>54561.82510962276</v>
@@ -26439,25 +26441,25 @@
         <v>54561.82510962275</v>
       </c>
       <c r="J4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962275</v>
       </c>
       <c r="K4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962275</v>
       </c>
       <c r="L4" t="n">
         <v>54561.82510962275</v>
       </c>
       <c r="M4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962277</v>
       </c>
       <c r="N4" t="n">
         <v>54561.82510962276</v>
       </c>
       <c r="O4" t="n">
-        <v>36113.14695271204</v>
+        <v>51166.46699861006</v>
       </c>
       <c r="P4" t="n">
-        <v>36113.14695271204</v>
+        <v>51166.46699861006</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.5245617577</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="C5" t="n">
         <v>74212.5245617577</v>
@@ -26476,10 +26478,10 @@
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>42656.06373915099</v>
+        <v>71265.27548232873</v>
       </c>
       <c r="F5" t="n">
-        <v>42656.06373915099</v>
+        <v>71265.27548232873</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26494,7 +26496,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="L5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>42656.06373915099</v>
+        <v>71265.27548232873</v>
       </c>
       <c r="P5" t="n">
-        <v>42656.06373915099</v>
+        <v>71265.27548232873</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-57215.61047104558</v>
+        <v>-57215.61047104554</v>
       </c>
       <c r="C6" t="n">
         <v>166484.0881129993</v>
       </c>
       <c r="D6" t="n">
-        <v>166484.0881129993</v>
+        <v>166484.0881129992</v>
       </c>
       <c r="E6" t="n">
-        <v>163877.6164816312</v>
+        <v>85104.32041401151</v>
       </c>
       <c r="F6" t="n">
-        <v>174048.6130820874</v>
+        <v>235770.0739857592</v>
       </c>
       <c r="G6" t="n">
-        <v>91632.20783805606</v>
+        <v>220601.8756115572</v>
       </c>
       <c r="H6" t="n">
-        <v>249691.6847841652</v>
+        <v>249691.6847841651</v>
       </c>
       <c r="I6" t="n">
         <v>249691.6847841651</v>
       </c>
       <c r="J6" t="n">
-        <v>75040.33606645901</v>
+        <v>75040.3360664589</v>
       </c>
       <c r="K6" t="n">
-        <v>249691.684784165</v>
+        <v>249691.6847841651</v>
       </c>
       <c r="L6" t="n">
         <v>249691.6847841651</v>
       </c>
       <c r="M6" t="n">
-        <v>241202.6030808244</v>
+        <v>123940.5964484746</v>
       </c>
       <c r="N6" t="n">
-        <v>249691.6847841651</v>
+        <v>249691.6847841652</v>
       </c>
       <c r="O6" t="n">
-        <v>174048.6130820874</v>
+        <v>235770.0739857592</v>
       </c>
       <c r="P6" t="n">
-        <v>174048.6130820873</v>
+        <v>235770.0739857592</v>
       </c>
     </row>
   </sheetData>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
         <v>667.515206607857</v>
@@ -26796,10 +26798,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>701.5799957097203</v>
+        <v>1172.12624148567</v>
       </c>
       <c r="F4" t="n">
-        <v>701.5799957097203</v>
+        <v>1172.12624148567</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>701.5799957097203</v>
+        <v>1172.12624148567</v>
       </c>
       <c r="P4" t="n">
-        <v>701.5799957097203</v>
+        <v>1172.12624148567</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>34.06478910186334</v>
+        <v>504.611034877813</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>576.6805076750251</v>
+        <v>106.1342618990755</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186334</v>
+        <v>504.611034877813</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186334</v>
+        <v>504.611034877813</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>576.6805076750251</v>
+        <v>106.1342618990755</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>215.4845050789319</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -27436,7 +27438,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>336.6929326543901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>26.33579611060421</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27582,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>83.94149472053158</v>
+      </c>
+      <c r="Y5" t="n">
         <v>400</v>
-      </c>
-      <c r="X5" t="n">
-        <v>369.8422500230731</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27819,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>208.2197249473428</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>161.926849064976</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>12.06100714571784</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -27910,16 +27912,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>367.2261030860415</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>73.62918697961771</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,10 +28022,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>84.63380825304843</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -28801,7 +28803,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>-5.621818412198717e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29019,7 +29021,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -34699,7 +34701,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34708,16 +34710,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157523</v>
+        <v>469.6822035600076</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34778,7 +34780,7 @@
         <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>540.0049805212327</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34793,13 +34795,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>661.3192390158827</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094345</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34863,19 +34865,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="P5" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="N5" t="n">
-        <v>667.5152066078568</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>667.5152066078567</v>
-      </c>
       <c r="Q5" t="n">
-        <v>469.682203560008</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,10 +35011,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35021,19 +35023,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>540.0049805212334</v>
+      </c>
+      <c r="P6" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="N6" t="n">
-        <v>347.9676668794094</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
       <c r="Q6" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35100,13 +35102,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O8" t="n">
         <v>667.515206607857</v>
@@ -35246,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35258,16 +35260,16 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>212.2804580932202</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097202</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>39.34908037598234</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,10 +35491,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327045</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35504,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0.03656536949870315</v>
+        <v>388.0185734358513</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,7 +35649,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>701.5799957097202</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -35656,19 +35658,19 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>809.0782778761379</v>
       </c>
       <c r="O14" t="n">
-        <v>212.2804580932202</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097202</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L15" t="n">
-        <v>290.8505511674832</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35741,13 +35743,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35881,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>459.5978749662608</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -35893,7 +35895,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35905,7 +35907,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35965,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35981,7 +35983,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36124,16 +36126,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>922.699389992646</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36206,19 +36208,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36291,13 +36293,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -36437,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>305.8360165328637</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36452,10 +36454,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638367</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q24" t="n">
-        <v>164.4273484133669</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36528,13 +36530,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465032</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36853,7 +36855,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>-1.0912429034652e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36929,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132081</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37069,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37078,10 +37080,10 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37154,10 +37156,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N33" t="n">
-        <v>469.2069973599082</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37224,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
@@ -37239,13 +37241,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>702.7389601124028</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>833.0630236930783</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37540,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>376.7818457160674</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37564,7 +37566,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37640,10 +37642,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908462</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37707,7 +37709,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
@@ -37777,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>701.5799957097204</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>673.2333292163985</v>
+        <v>884.1022829978583</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37853,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37865,22 +37867,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>276.8801716904673</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>701.5799957097203</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960968</v>
       </c>
       <c r="L43" t="n">
         <v>422.4342240080414</v>
@@ -37950,13 +37952,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>121.2143535006462</v>
+        <v>39.3490803759822</v>
       </c>
       <c r="K44" t="n">
-        <v>701.5799957097203</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>701.5799957097203</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>701.5799957097202</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
@@ -38096,7 +38098,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1372295.818617226</v>
+        <v>1371689.730988329</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16659530.99074006</v>
+        <v>16659530.99074005</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>606553.2040797183</v>
+        <v>606553.2040797165</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6729963.10824856</v>
+        <v>6729963.108248561</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>218.276543009479</v>
+        <v>207.2887184091844</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -819,13 +819,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>137.247051021543</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -867,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>35.20092700998642</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
@@ -910,13 +910,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>30.1577499769271</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>331.0095440659508</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1056,13 +1056,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>137.2470510215434</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1119,10 +1119,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>81.0109880549457</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>245.6749552534301</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>36.97715937730158</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1293,7 +1293,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>97.2069074219896</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -1302,13 +1302,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1378,7 +1378,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>17.5511538153596</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1432,10 +1432,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>403.8720952516284</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1578,13 +1578,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>46.22530271040065</v>
+        <v>113.7218216744508</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1596,7 +1596,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1621,10 +1621,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>354.9648390533865</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>75.54539544254757</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1675,7 +1675,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1770,13 +1770,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>120.1472970361154</v>
+        <v>107.8580766794774</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
@@ -1785,7 +1785,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800599</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1858,7 +1858,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
@@ -2010,7 +2010,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2019,7 +2019,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>28.46824604904752</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735226156</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>181.1112426721144</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2247,13 +2247,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>53.90045570694846</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -2301,7 +2301,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2478,7 +2478,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2490,10 +2490,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>56.67612639678244</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2730,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
-        <v>13.99728392830417</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2970,7 +2970,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>155.2022955251541</v>
       </c>
       <c r="T31" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3204,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>172.6623007436909</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3444,7 +3444,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>122.9742767430576</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3489,7 +3489,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>131.5141848153389</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3568,7 +3568,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864836</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -3663,13 +3663,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>116.0434079398613</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
@@ -3717,10 +3717,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>193.8659438253767</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3748,7 +3748,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>17.5511538153569</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
@@ -3793,10 +3793,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>62.61079093391727</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3903,7 +3903,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3912,7 +3912,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -3963,7 +3963,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>41.00451938202642</v>
+        <v>41.28837002808794</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3985,7 +3985,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>17.5511538153596</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
@@ -3997,7 +3997,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,10 +4030,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>63.02341241304593</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4149,10 +4149,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>94.21878984361641</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>193.8659438253731</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>648.8602641703441</v>
+        <v>1156.295315593938</v>
       </c>
       <c r="C2" t="n">
-        <v>428.3789075951127</v>
+        <v>946.912771746277</v>
       </c>
       <c r="D2" t="n">
-        <v>396.5095268099613</v>
+        <v>511.0029869207216</v>
       </c>
       <c r="E2" t="n">
-        <v>366.7751860086605</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F2" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G2" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>714.241271070407</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>714.241271070407</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M2" t="n">
-        <v>714.241271070407</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N2" t="n">
-        <v>714.241271070407</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O2" t="n">
-        <v>1375.081325612186</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>2035.921380153964</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
@@ -4363,19 +4363,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2670.060826431428</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V2" t="n">
-        <v>2307.443876365255</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="W2" t="n">
-        <v>1902.588421776288</v>
+        <v>2005.983069159478</v>
       </c>
       <c r="X2" t="n">
-        <v>1483.445958355599</v>
+        <v>1990.881009779192</v>
       </c>
       <c r="Y2" t="n">
-        <v>1075.159834655252</v>
+        <v>1582.594886078846</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>1406.536348780555</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>1311.446059927108</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>1217.325645254062</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>1006.82106495262</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>1032.884738113077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>1892.04799379531</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L3" t="n">
-        <v>1892.04799379531</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M3" t="n">
-        <v>1892.04799379531</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N3" t="n">
-        <v>1892.04799379531</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O3" t="n">
-        <v>1892.04799379531</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P3" t="n">
-        <v>2552.888048337089</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>2100.972680272381</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>1915.649926005575</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>1760.782490244455</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1132.45937714051</v>
+        <v>762.8950539462403</v>
       </c>
       <c r="C4" t="n">
-        <v>959.897665623735</v>
+        <v>762.8950539462403</v>
       </c>
       <c r="D4" t="n">
-        <v>794.0196728252577</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="E4" t="n">
         <v>624.2616690759949</v>
@@ -4485,7 +4485,7 @@
         <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
@@ -4515,25 +4515,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S4" t="n">
-        <v>2670.060826431428</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T4" t="n">
-        <v>2634.504334502149</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U4" t="n">
-        <v>2356.071333755254</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V4" t="n">
-        <v>2069.115825625685</v>
+        <v>1699.551502431415</v>
       </c>
       <c r="W4" t="n">
-        <v>1797.089421211977</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X4" t="n">
-        <v>1551.697666545389</v>
+        <v>1182.133343351119</v>
       </c>
       <c r="Y4" t="n">
-        <v>1324.277995859497</v>
+        <v>954.7136726652275</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>978.7890572316417</v>
+        <v>1385.055244562854</v>
       </c>
       <c r="C5" t="n">
-        <v>944.6869884554691</v>
+        <v>946.912771746277</v>
       </c>
       <c r="D5" t="n">
-        <v>912.8176076703177</v>
+        <v>511.0029869207216</v>
       </c>
       <c r="E5" t="n">
-        <v>883.0832668690169</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F5" t="n">
-        <v>455.2158372782247</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>1149.495958523325</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L5" t="n">
-        <v>1149.495958523325</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M5" t="n">
-        <v>1149.495958523325</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N5" t="n">
-        <v>1149.495958523325</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O5" t="n">
-        <v>1293.567921177998</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719776</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2366.341725488303</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>2107.11942280532</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>1744.502472739146</v>
+        <v>2639.59845271736</v>
       </c>
       <c r="W5" t="n">
-        <v>1339.64701815018</v>
+        <v>2638.783402168797</v>
       </c>
       <c r="X5" t="n">
-        <v>1005.293943336088</v>
+        <v>2219.640938748108</v>
       </c>
       <c r="Y5" t="n">
-        <v>1001.048223676145</v>
+        <v>1811.354815047761</v>
       </c>
     </row>
     <row r="6">
@@ -4649,22 +4649,22 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>938.6281453713194</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
         <v>1599.468199913098</v>
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1132.45937714051</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C7" t="n">
-        <v>959.897665623735</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="D7" t="n">
-        <v>794.0196728252577</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="E7" t="n">
         <v>624.2616690759949</v>
@@ -4737,7 +4737,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
         <v>2154.361157596754</v>
@@ -4749,28 +4749,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2489.401636434796</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T7" t="n">
-        <v>2243.522190013251</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U7" t="n">
-        <v>1965.089189266357</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V7" t="n">
-        <v>1678.133681136787</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W7" t="n">
-        <v>1406.107276723079</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X7" t="n">
-        <v>1324.277995859497</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y7" t="n">
-        <v>1324.277995859497</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2190.493479979994</v>
+        <v>793.6783655277644</v>
       </c>
       <c r="C8" t="n">
-        <v>1752.351007163417</v>
+        <v>355.5358927111877</v>
       </c>
       <c r="D8" t="n">
-        <v>1316.441222337862</v>
+        <v>107.3793722531775</v>
       </c>
       <c r="E8" t="n">
-        <v>882.6664774961569</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F8" t="n">
-        <v>454.7990479053647</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4807,16 +4807,16 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>488.6559039815464</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>488.6559039815464</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
         <v>1293.567921177998</v>
@@ -4837,19 +4837,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V8" t="n">
-        <v>2670.060826431428</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W8" t="n">
-        <v>2669.245775882865</v>
+        <v>1643.366119093304</v>
       </c>
       <c r="X8" t="n">
-        <v>2654.14371650258</v>
+        <v>1224.223655672615</v>
       </c>
       <c r="Y8" t="n">
-        <v>2616.793050464902</v>
+        <v>815.9375319722682</v>
       </c>
     </row>
     <row r="9">
@@ -4886,19 +4886,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
         <v>1058.729261281022</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>741.4772326516127</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>643.2884372758656</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>477.4104444773883</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>307.6524407281256</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>307.6524407281256</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>142.0611657539532</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
         <v>142.0611657539532</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136788</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1406.107276723079</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1160.715522056492</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>933.2958513705998</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2520.409306699863</v>
+        <v>2104.363000055491</v>
       </c>
       <c r="C11" t="n">
-        <v>2082.266833883286</v>
+        <v>1666.220527238914</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.357049057731</v>
+        <v>1230.310742413359</v>
       </c>
       <c r="E11" t="n">
         <v>1212.582304216026</v>
@@ -5032,61 +5032,61 @@
         <v>784.7148746252335</v>
       </c>
       <c r="G11" t="n">
-        <v>383.3170432484973</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H11" t="n">
-        <v>94.18688869171359</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I11" t="n">
-        <v>93.7700993188536</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J11" t="n">
-        <v>93.7700993188536</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K11" t="n">
-        <v>93.7700993188536</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L11" t="n">
-        <v>1168.830065571713</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.830065571713</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N11" t="n">
-        <v>2294.56104900816</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O11" t="n">
-        <v>3274.740715578466</v>
+        <v>3418.614711553115</v>
       </c>
       <c r="P11" t="n">
-        <v>4103.050590411862</v>
+        <v>3972.852115231031</v>
       </c>
       <c r="Q11" t="n">
-        <v>4649.549376370457</v>
+        <v>4519.350901189626</v>
       </c>
       <c r="R11" t="n">
-        <v>4688.50496594268</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S11" t="n">
-        <v>4604.853092126516</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T11" t="n">
-        <v>4384.785864999555</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="U11" t="n">
-        <v>4125.563562316572</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="V11" t="n">
-        <v>3762.946612250398</v>
+        <v>3762.946612250401</v>
       </c>
       <c r="W11" t="n">
-        <v>3762.946612250398</v>
+        <v>3358.091157661434</v>
       </c>
       <c r="X11" t="n">
-        <v>3354.995000885117</v>
+        <v>2938.948694240745</v>
       </c>
       <c r="Y11" t="n">
-        <v>2946.70887718477</v>
+        <v>2530.662570540399</v>
       </c>
     </row>
     <row r="12">
@@ -5099,49 +5099,49 @@
         <v>599.9418443101464</v>
       </c>
       <c r="C12" t="n">
-        <v>493.4853831467886</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D12" t="n">
-        <v>398.3950942933419</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E12" t="n">
-        <v>304.2746796202956</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F12" t="n">
-        <v>220.8908412364572</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G12" t="n">
-        <v>135.5057515026411</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>93.7700993188536</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I12" t="n">
-        <v>93.7700993188536</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J12" t="n">
-        <v>418.328424285066</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K12" t="n">
-        <v>418.328424285066</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L12" t="n">
-        <v>1372.87147309617</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M12" t="n">
-        <v>1372.87147309617</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N12" t="n">
-        <v>1372.87147309617</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O12" t="n">
-        <v>1372.87147309617</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P12" t="n">
-        <v>1757.009860797662</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q12" t="n">
-        <v>1757.009860797662</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
         <v>1757.009860797662</v>
@@ -5190,22 +5190,22 @@
         <v>487.9234978279761</v>
       </c>
       <c r="G13" t="n">
-        <v>322.3322228538037</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H13" t="n">
-        <v>182.4300485441782</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I13" t="n">
-        <v>93.7700993188536</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J13" t="n">
-        <v>180.3497844835434</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K13" t="n">
-        <v>455.108239054679</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L13" t="n">
-        <v>873.31812082264</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M13" t="n">
         <v>1332.801988003553</v>
@@ -5226,22 +5226,22 @@
         <v>2689.011887927025</v>
       </c>
       <c r="S13" t="n">
-        <v>2689.011887927025</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T13" t="n">
-        <v>2443.13244150548</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U13" t="n">
-        <v>2396.440216545479</v>
+        <v>2169.020545859587</v>
       </c>
       <c r="V13" t="n">
-        <v>2109.48470841591</v>
+        <v>1882.065037730018</v>
       </c>
       <c r="W13" t="n">
-        <v>1837.458304002201</v>
+        <v>1610.03863331631</v>
       </c>
       <c r="X13" t="n">
-        <v>1592.066549335614</v>
+        <v>1364.646878649722</v>
       </c>
       <c r="Y13" t="n">
         <v>1364.646878649722</v>
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2188.014873871651</v>
+        <v>2519.992517327003</v>
       </c>
       <c r="C14" t="n">
-        <v>1749.872401055075</v>
+        <v>2081.850044510426</v>
       </c>
       <c r="D14" t="n">
-        <v>1313.962616229519</v>
+        <v>1645.940259684871</v>
       </c>
       <c r="E14" t="n">
-        <v>880.1878713878141</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F14" t="n">
-        <v>452.3204417970218</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G14" t="n">
-        <v>93.7700993188536</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H14" t="n">
-        <v>93.7700993188536</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I14" t="n">
-        <v>93.7700993188536</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J14" t="n">
-        <v>529.0247867717715</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K14" t="n">
-        <v>1363.375078729949</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L14" t="n">
-        <v>1363.375078729949</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M14" t="n">
-        <v>1363.375078729949</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N14" t="n">
-        <v>2164.362573827326</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O14" t="n">
-        <v>3144.542240397632</v>
+        <v>3418.614711553115</v>
       </c>
       <c r="P14" t="n">
-        <v>3972.852115231028</v>
+        <v>4246.924586386512</v>
       </c>
       <c r="Q14" t="n">
-        <v>4519.350901189623</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R14" t="n">
-        <v>4688.50496594268</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S14" t="n">
-        <v>4688.50496594268</v>
+        <v>4612.196485697685</v>
       </c>
       <c r="T14" t="n">
-        <v>4468.437738815718</v>
+        <v>4392.129258570723</v>
       </c>
       <c r="U14" t="n">
-        <v>4209.215436132735</v>
+        <v>4132.90695588774</v>
       </c>
       <c r="V14" t="n">
-        <v>3846.598486066561</v>
+        <v>3770.290005821566</v>
       </c>
       <c r="W14" t="n">
-        <v>3441.743031477595</v>
+        <v>3365.434551232599</v>
       </c>
       <c r="X14" t="n">
-        <v>3022.600568056906</v>
+        <v>2946.29208781191</v>
       </c>
       <c r="Y14" t="n">
-        <v>2614.314444356559</v>
+        <v>2946.29208781191</v>
       </c>
     </row>
     <row r="15">
@@ -5336,43 +5336,43 @@
         <v>599.9418443101464</v>
       </c>
       <c r="C15" t="n">
-        <v>493.4853831467886</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D15" t="n">
-        <v>398.3950942933419</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E15" t="n">
-        <v>304.2746796202956</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F15" t="n">
-        <v>220.8908412364572</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G15" t="n">
-        <v>135.5057515026411</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>93.7700993188536</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I15" t="n">
-        <v>119.8337724793112</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J15" t="n">
-        <v>444.3920974455235</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K15" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L15" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M15" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N15" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O15" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P15" t="n">
         <v>1099.098144071247</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>781.8461154418374</v>
+        <v>1027.237870108425</v>
       </c>
       <c r="C16" t="n">
-        <v>609.2844039250623</v>
+        <v>854.6761585916503</v>
       </c>
       <c r="D16" t="n">
-        <v>487.9234978279761</v>
+        <v>745.7286063901579</v>
       </c>
       <c r="E16" t="n">
-        <v>487.9234978279761</v>
+        <v>575.9706026408952</v>
       </c>
       <c r="F16" t="n">
-        <v>487.9234978279761</v>
+        <v>399.2635486026514</v>
       </c>
       <c r="G16" t="n">
-        <v>322.3322228538037</v>
+        <v>233.6722736284791</v>
       </c>
       <c r="H16" t="n">
-        <v>182.4300485441782</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I16" t="n">
-        <v>93.7700993188536</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J16" t="n">
-        <v>180.3497844835434</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K16" t="n">
-        <v>455.108239054679</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L16" t="n">
-        <v>873.31812082264</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M16" t="n">
         <v>1332.801988003553</v>
@@ -5463,7 +5463,7 @@
         <v>2689.011887927025</v>
       </c>
       <c r="S16" t="n">
-        <v>2529.770519225021</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T16" t="n">
         <v>2283.891072803477</v>
@@ -5472,16 +5472,16 @@
         <v>2005.458072056582</v>
       </c>
       <c r="V16" t="n">
-        <v>1718.502563927012</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W16" t="n">
         <v>1446.476159513304</v>
       </c>
       <c r="X16" t="n">
-        <v>1201.084404846716</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="Y16" t="n">
-        <v>973.6647341608245</v>
+        <v>1219.056488827413</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
         <v>391.8077842004234</v>
@@ -5515,28 +5515,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2627364873778</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1632.322702740237</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>1632.322702740237</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477067</v>
+        <v>811.7546776883951</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309316</v>
+        <v>639.19296617162</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324543</v>
+        <v>473.3149733731427</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831915</v>
+        <v>473.3149733731427</v>
       </c>
       <c r="F19" t="n">
-        <v>267.8521152449478</v>
+        <v>296.607919334899</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707754</v>
+        <v>131.0166443607266</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707754</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5691,34 +5691,34 @@
         <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130891</v>
+        <v>2559.679081471579</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.801834709346</v>
+        <v>2313.799635050034</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962451</v>
+        <v>2035.36663430314</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832882</v>
+        <v>1748.41112617357</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419173</v>
+        <v>1476.384721759862</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.995166752586</v>
+        <v>1230.992967093274</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066694</v>
+        <v>1003.573296407382</v>
       </c>
     </row>
     <row r="20">
@@ -5752,28 +5752,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
@@ -5828,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3486.780615022739</v>
+        <v>811.7546776883946</v>
       </c>
       <c r="C22" t="n">
-        <v>3314.218903505964</v>
+        <v>639.1929661716196</v>
       </c>
       <c r="D22" t="n">
-        <v>3148.340910707486</v>
+        <v>473.3149733731423</v>
       </c>
       <c r="E22" t="n">
-        <v>2978.582906958224</v>
+        <v>473.3149733731423</v>
       </c>
       <c r="F22" t="n">
-        <v>2801.87585291998</v>
+        <v>296.6079193348985</v>
       </c>
       <c r="G22" t="n">
-        <v>2636.284577945808</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H22" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>3275.930425139968</v>
+        <v>881.808861774569</v>
       </c>
       <c r="M22" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955482</v>
       </c>
       <c r="N22" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O22" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338908</v>
       </c>
       <c r="P22" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.72767530925</v>
       </c>
       <c r="Q22" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="R22" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="S22" t="n">
-        <v>4953.800644836978</v>
+        <v>2559.679081471579</v>
       </c>
       <c r="T22" t="n">
-        <v>4707.921198415434</v>
+        <v>2313.799635050034</v>
       </c>
       <c r="U22" t="n">
-        <v>4429.488197668539</v>
+        <v>2035.366634303139</v>
       </c>
       <c r="V22" t="n">
-        <v>4142.53268953897</v>
+        <v>1748.41112617357</v>
       </c>
       <c r="W22" t="n">
-        <v>4142.53268953897</v>
+        <v>1476.384721759861</v>
       </c>
       <c r="X22" t="n">
-        <v>3897.140934872382</v>
+        <v>1230.992967093274</v>
       </c>
       <c r="Y22" t="n">
-        <v>3669.721264186491</v>
+        <v>1003.573296407382</v>
       </c>
     </row>
     <row r="23">
@@ -5977,25 +5977,25 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
         <v>2588.899621423627</v>
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>645.8766848899141</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>476.1186811406514</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>299.4116271024076</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6174,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="26">
@@ -6214,40 +6214,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532228</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6302,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6408,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2683.3639582443</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6451,40 +6451,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6502,13 +6502,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3955.973997051464</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C30" t="n">
-        <v>3849.517535888106</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D30" t="n">
-        <v>3754.427247034659</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E30" t="n">
-        <v>3660.306832361613</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F30" t="n">
-        <v>3576.922993977775</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G30" t="n">
-        <v>3491.537904243959</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H30" t="n">
-        <v>3449.802252060171</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>3475.865925220629</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>3800.424250186841</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>4995.86923544464</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
-        <v>5113.04201353898</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S30" t="n">
-        <v>5049.586575987363</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T30" t="n">
-        <v>4919.407932317965</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U30" t="n">
-        <v>4743.071385317933</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V30" t="n">
-        <v>4543.953867379932</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W30" t="n">
-        <v>4358.631113113126</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X30" t="n">
-        <v>4203.763677352006</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y30" t="n">
-        <v>4077.277898131227</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057297</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6648,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2562.150454693625</v>
       </c>
       <c r="T31" t="n">
-        <v>2683.3639582443</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="U31" t="n">
-        <v>2404.930957497405</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V31" t="n">
-        <v>2117.975449367836</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W31" t="n">
-        <v>1845.949044954127</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X31" t="n">
-        <v>1600.55729028754</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601648</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="32">
@@ -6688,40 +6688,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6739,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3346.878440713113</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C34" t="n">
-        <v>3174.316729196338</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D34" t="n">
-        <v>3008.438736397861</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E34" t="n">
-        <v>2838.680732648598</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F34" t="n">
-        <v>2661.973678610354</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>2496.382403636182</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>2496.382403636182</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J34" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K34" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L34" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M34" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N34" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O34" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P34" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q34" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>5113.042013538981</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>5094.802844496297</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>4848.923398074752</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>4570.490397327858</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V34" t="n">
-        <v>4283.534889198289</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W34" t="n">
-        <v>4011.50848478458</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X34" t="n">
-        <v>3766.116730117992</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y34" t="n">
-        <v>3538.697059432101</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="35">
@@ -6925,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6943,10 +6943,10 @@
         <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>936.6111322289576</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
-        <v>1632.322702740236</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N35" t="n">
         <v>2758.053686176683</v>
@@ -7013,10 +7013,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2970399865835</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>426.8553649527958</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
         <v>1107.588885023173</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1092.659051657336</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>920.0973401405612</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>754.2193473420839</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>584.4613435928212</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7119,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2594.704009018975</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2594.704009018975</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2316.271008272081</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="V37" t="n">
-        <v>2029.315500142511</v>
+        <v>2005.426305625833</v>
       </c>
       <c r="W37" t="n">
-        <v>1757.289095728803</v>
+        <v>1733.399901212125</v>
       </c>
       <c r="X37" t="n">
-        <v>1511.897341062215</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y37" t="n">
-        <v>1284.477670376323</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="38">
@@ -7162,55 +7162,55 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>475.2748675296863</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>475.2748675296863</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>1632.322702740237</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
@@ -7219,7 +7219,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="E40" t="n">
         <v>673.1212928181459</v>
@@ -7332,52 +7332,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>188.8405254354734</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>463.598980006609</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>881.80886177457</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>1341.292728955483</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1783.551532113128</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>2203.220781338909</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2550.727675309251</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173583</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.67908147158</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050035</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>2117.975449367836</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V40" t="n">
-        <v>2117.975449367836</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W40" t="n">
-        <v>1845.949044954127</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X40" t="n">
-        <v>1600.55729028754</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y40" t="n">
-        <v>1373.137619601648</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2104.363000055488</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C41" t="n">
-        <v>1666.220527238911</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D41" t="n">
-        <v>1230.310742413356</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E41" t="n">
         <v>1212.582304216026</v>
@@ -7402,61 +7402,61 @@
         <v>784.7148746252335</v>
       </c>
       <c r="G41" t="n">
-        <v>383.3170432484973</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H41" t="n">
-        <v>94.18688869171359</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I41" t="n">
-        <v>93.7700993188536</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J41" t="n">
-        <v>529.0247867717715</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K41" t="n">
-        <v>1363.375078729949</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L41" t="n">
-        <v>2438.435044982809</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="M41" t="n">
-        <v>2438.435044982809</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="N41" t="n">
-        <v>2438.435044982809</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="O41" t="n">
-        <v>3313.696305150689</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="P41" t="n">
-        <v>4142.006179984085</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q41" t="n">
-        <v>4688.50496594268</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R41" t="n">
-        <v>4688.50496594268</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S41" t="n">
-        <v>4604.853092126516</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T41" t="n">
-        <v>4384.785864999555</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="U41" t="n">
-        <v>4125.563562316572</v>
+        <v>4541.609868960946</v>
       </c>
       <c r="V41" t="n">
-        <v>3762.946612250398</v>
+        <v>4178.992918894773</v>
       </c>
       <c r="W41" t="n">
-        <v>3358.091157661432</v>
+        <v>3774.137464305806</v>
       </c>
       <c r="X41" t="n">
-        <v>2938.948694240742</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y41" t="n">
-        <v>2530.662570540396</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="42">
@@ -7469,43 +7469,43 @@
         <v>599.9418443101464</v>
       </c>
       <c r="C42" t="n">
-        <v>493.4853831467886</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D42" t="n">
-        <v>398.3950942933419</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E42" t="n">
-        <v>304.2746796202956</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F42" t="n">
-        <v>220.8908412364572</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G42" t="n">
-        <v>135.5057515026411</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>93.7700993188536</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I42" t="n">
-        <v>119.8337724793112</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J42" t="n">
-        <v>444.3920974455235</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K42" t="n">
-        <v>444.3920974455235</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L42" t="n">
-        <v>444.3920974455235</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M42" t="n">
-        <v>444.3920974455235</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N42" t="n">
-        <v>444.3920974455235</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O42" t="n">
-        <v>444.3920974455235</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P42" t="n">
         <v>1099.098144071247</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2985.312241677589</v>
+        <v>1006.950267132258</v>
       </c>
       <c r="C43" t="n">
-        <v>2812.750530160814</v>
+        <v>834.3885556154826</v>
       </c>
       <c r="D43" t="n">
-        <v>2646.872537362337</v>
+        <v>834.3885556154826</v>
       </c>
       <c r="E43" t="n">
-        <v>2477.114533613074</v>
+        <v>664.6305518662199</v>
       </c>
       <c r="F43" t="n">
-        <v>2300.40747957483</v>
+        <v>487.9234978279761</v>
       </c>
       <c r="G43" t="n">
-        <v>2300.40747957483</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H43" t="n">
-        <v>2160.505305265205</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I43" t="n">
-        <v>2071.84535603988</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J43" t="n">
-        <v>2158.42504120457</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K43" t="n">
-        <v>2433.183495775706</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L43" t="n">
-        <v>2851.393377543667</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M43" t="n">
-        <v>3310.87724472458</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N43" t="n">
-        <v>3753.136047882224</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O43" t="n">
-        <v>4172.805297108006</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P43" t="n">
-        <v>4520.312191078347</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q43" t="n">
-        <v>4688.50496594268</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>4688.50496594268</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S43" t="n">
-        <v>4529.263597240676</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T43" t="n">
-        <v>4283.384150819132</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U43" t="n">
-        <v>4004.951150072237</v>
+        <v>2026.87589335121</v>
       </c>
       <c r="V43" t="n">
-        <v>3717.995641942668</v>
+        <v>1739.920385221641</v>
       </c>
       <c r="W43" t="n">
-        <v>3445.969237528959</v>
+        <v>1467.893980807932</v>
       </c>
       <c r="X43" t="n">
-        <v>3404.550531082468</v>
+        <v>1426.188556537136</v>
       </c>
       <c r="Y43" t="n">
-        <v>3177.130860396576</v>
+        <v>1198.768885851245</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2519.992517327003</v>
+        <v>2104.363000055491</v>
       </c>
       <c r="C44" t="n">
-        <v>2081.850044510426</v>
+        <v>1666.220527238914</v>
       </c>
       <c r="D44" t="n">
-        <v>1645.940259684871</v>
+        <v>1230.310742413359</v>
       </c>
       <c r="E44" t="n">
-        <v>1212.165514843166</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F44" t="n">
-        <v>784.2980852523734</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G44" t="n">
-        <v>382.9002538756373</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H44" t="n">
-        <v>93.7700993188536</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I44" t="n">
-        <v>93.7700993188536</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J44" t="n">
-        <v>132.725688891076</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K44" t="n">
-        <v>132.725688891076</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L44" t="n">
-        <v>1207.785655143935</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="M44" t="n">
-        <v>1207.785655143935</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="N44" t="n">
-        <v>2333.516638580382</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="O44" t="n">
-        <v>3313.696305150689</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="P44" t="n">
-        <v>4142.006179984085</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q44" t="n">
-        <v>4688.50496594268</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R44" t="n">
-        <v>4688.50496594268</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S44" t="n">
-        <v>4604.853092126516</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T44" t="n">
-        <v>4604.853092126516</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="U44" t="n">
-        <v>4541.193079588086</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="V44" t="n">
-        <v>4178.576129521913</v>
+        <v>3762.946612250401</v>
       </c>
       <c r="W44" t="n">
-        <v>3773.720674932946</v>
+        <v>3358.091157661434</v>
       </c>
       <c r="X44" t="n">
-        <v>3354.578211512257</v>
+        <v>2938.948694240745</v>
       </c>
       <c r="Y44" t="n">
-        <v>2946.29208781191</v>
+        <v>2530.662570540399</v>
       </c>
     </row>
     <row r="45">
@@ -7706,28 +7706,28 @@
         <v>599.9418443101464</v>
       </c>
       <c r="C45" t="n">
-        <v>493.4853831467886</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D45" t="n">
-        <v>398.3950942933419</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E45" t="n">
-        <v>304.2746796202956</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F45" t="n">
-        <v>220.8908412364572</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G45" t="n">
-        <v>135.5057515026411</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>93.7700993188536</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I45" t="n">
-        <v>119.8337724793112</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J45" t="n">
-        <v>444.3920974455235</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K45" t="n">
         <v>1099.098144071247</v>
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>962.5053054384689</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C46" t="n">
-        <v>789.9435939216938</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D46" t="n">
-        <v>624.0656011232165</v>
+        <v>834.3885556154826</v>
       </c>
       <c r="E46" t="n">
-        <v>454.3075973739538</v>
+        <v>664.6305518662199</v>
       </c>
       <c r="F46" t="n">
-        <v>277.60054333571</v>
+        <v>487.9234978279761</v>
       </c>
       <c r="G46" t="n">
-        <v>182.4300485441782</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H46" t="n">
-        <v>182.4300485441782</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I46" t="n">
-        <v>93.7700993188536</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J46" t="n">
-        <v>180.3497844835434</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K46" t="n">
-        <v>455.108239054679</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L46" t="n">
-        <v>873.31812082264</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M46" t="n">
         <v>1332.801988003553</v>
@@ -7833,25 +7833,25 @@
         <v>2710.429709221653</v>
       </c>
       <c r="S46" t="n">
-        <v>2710.429709221653</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T46" t="n">
-        <v>2464.550262800108</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U46" t="n">
-        <v>2186.117262053213</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="V46" t="n">
-        <v>1899.161753923644</v>
+        <v>2109.48470841591</v>
       </c>
       <c r="W46" t="n">
-        <v>1627.135349509935</v>
+        <v>1837.458304002201</v>
       </c>
       <c r="X46" t="n">
-        <v>1381.743594843348</v>
+        <v>1592.066549335614</v>
       </c>
       <c r="Y46" t="n">
-        <v>1154.323924157456</v>
+        <v>1364.646878649722</v>
       </c>
     </row>
   </sheetData>
@@ -7978,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7993,13 +7993,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078572</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P2" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>469.6822035600076</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8060,7 +8060,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>540.0049805212327</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.5152066078572</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8157,7 +8157,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8230,16 +8230,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q5" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8309,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>540.0049805212334</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8382,7 +8382,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
@@ -8455,19 +8455,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -8534,7 +8534,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8689,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
@@ -8701,19 +8701,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458549</v>
+        <v>559.8357612908239</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>39.34908037598234</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
@@ -8774,7 +8774,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>388.0185734358513</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8932,13 +8932,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>809.0782778761379</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8947,10 +8947,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157522</v>
+        <v>446.0407874304756</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9163,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>459.5978749662608</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -9175,7 +9175,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9187,7 +9187,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9409,22 +9409,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,22 +9476,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>842.7780726850283</v>
@@ -9646,7 +9646,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>583.0591140826364</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>305.8360165328637</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,34 +9950,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
@@ -10357,22 +10357,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10591,13 +10591,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>702.7389601124028</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10822,19 +10822,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>376.7818457160674</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10846,7 +10846,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11065,7 +11065,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458944</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>884.1022829978583</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11141,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11296,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>39.3490803759822</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458944</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>411.8858435779281</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23320,10 +23320,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>11.07894353485403</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>229.4233680290251</v>
+        <v>161.9268490649749</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -23509,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>42.41901400958221</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>7.269959635453787</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23658,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>44.07191583437717</v>
+        <v>56.36113619101508</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23898,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>110.0349065174817</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23940,7 +23940,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627218</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>8.789189859682864</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24135,13 +24135,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>110.0349065174821</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24378,10 +24378,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>107.2592358276482</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24414,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
-        <v>229.4233680290251</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>2.446659489829187</v>
       </c>
       <c r="T31" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>102.9863699957348</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>34.67467827192567</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>111.4236523045828</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>52.01701577190883</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,10 +25605,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>81.78272691404899</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25636,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>411.8858435779309</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25681,10 +25681,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>194.019288722236</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>201.9333177378952</v>
+        <v>201.6494670918337</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25873,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>411.8858435779281</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,10 +25918,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>193.6066672431073</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26037,10 +26037,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>69.7165723808142</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26073,16 +26073,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>90.2200092229007</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>556833.5700771643</v>
+        <v>556833.5700771644</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>556833.5700771643</v>
+        <v>556833.5700771644</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>593784.5164596263</v>
+        <v>593784.5164596264</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>593784.5164596261</v>
+        <v>593784.5164596264</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>593784.5164596264</v>
+        <v>593784.5164596263</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>556833.5700771642</v>
+        <v>556833.5700771646</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>556833.5700771643</v>
+        <v>556833.5700771644</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>388706.8069205462</v>
+        <v>388706.8069205463</v>
       </c>
       <c r="C2" t="n">
-        <v>388706.8069205462</v>
+        <v>388706.806920546</v>
       </c>
       <c r="D2" t="n">
         <v>388706.806920546</v>
       </c>
       <c r="E2" t="n">
-        <v>358201.816466698</v>
+        <v>358201.8164666981</v>
       </c>
       <c r="F2" t="n">
-        <v>358201.816466698</v>
+        <v>358201.8164666981</v>
       </c>
       <c r="G2" t="n">
-        <v>381971.7484995805</v>
+        <v>381971.7484995804</v>
       </c>
       <c r="H2" t="n">
         <v>381971.7484995804</v>
       </c>
       <c r="I2" t="n">
+        <v>381971.7484995804</v>
+      </c>
+      <c r="J2" t="n">
         <v>381971.7484995803</v>
-      </c>
-      <c r="J2" t="n">
-        <v>381971.7484995804</v>
       </c>
       <c r="K2" t="n">
         <v>381971.7484995804</v>
@@ -26346,16 +26346,16 @@
         <v>381971.7484995803</v>
       </c>
       <c r="M2" t="n">
-        <v>381971.7484995804</v>
+        <v>381971.7484995803</v>
       </c>
       <c r="N2" t="n">
-        <v>381971.7484995805</v>
+        <v>381971.7484995803</v>
       </c>
       <c r="O2" t="n">
-        <v>358201.816466698</v>
+        <v>358201.8164666981</v>
       </c>
       <c r="P2" t="n">
-        <v>358201.816466698</v>
+        <v>358201.8164666981</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840449</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>150665.7535717477</v>
+        <v>150665.7535717479</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29089.8091726081</v>
+        <v>29089.80917260791</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177062</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>125751.0883356905</v>
+        <v>125751.0883356907</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>148010.1942457892</v>
       </c>
       <c r="D4" t="n">
-        <v>148010.1942457891</v>
+        <v>148010.1942457892</v>
       </c>
       <c r="E4" t="n">
-        <v>51166.46699861006</v>
+        <v>51166.46699861008</v>
       </c>
       <c r="F4" t="n">
-        <v>51166.46699861008</v>
+        <v>51166.46699861009</v>
       </c>
       <c r="G4" t="n">
+        <v>54561.82510962277</v>
+      </c>
+      <c r="H4" t="n">
+        <v>54561.82510962277</v>
+      </c>
+      <c r="I4" t="n">
         <v>54561.82510962276</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>54561.82510962276</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
+        <v>54561.82510962276</v>
+      </c>
+      <c r="L4" t="n">
+        <v>54561.82510962276</v>
+      </c>
+      <c r="M4" t="n">
         <v>54561.82510962275</v>
-      </c>
-      <c r="J4" t="n">
-        <v>54561.82510962275</v>
-      </c>
-      <c r="K4" t="n">
-        <v>54561.82510962275</v>
-      </c>
-      <c r="L4" t="n">
-        <v>54561.82510962275</v>
-      </c>
-      <c r="M4" t="n">
-        <v>54561.82510962277</v>
       </c>
       <c r="N4" t="n">
         <v>54561.82510962276</v>
       </c>
       <c r="O4" t="n">
-        <v>51166.46699861006</v>
+        <v>51166.46699861009</v>
       </c>
       <c r="P4" t="n">
-        <v>51166.46699861006</v>
+        <v>51166.46699861009</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
         <v>74212.5245617577</v>
@@ -26478,10 +26478,10 @@
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>71265.27548232873</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="F5" t="n">
-        <v>71265.27548232873</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26496,7 +26496,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
         <v>77718.23860579252</v>
@@ -26508,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>71265.27548232873</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="P5" t="n">
-        <v>71265.27548232873</v>
+        <v>71265.27548232877</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-57215.61047104554</v>
+        <v>-57215.61047104541</v>
       </c>
       <c r="C6" t="n">
-        <v>166484.0881129993</v>
+        <v>166484.0881129992</v>
       </c>
       <c r="D6" t="n">
         <v>166484.0881129992</v>
       </c>
       <c r="E6" t="n">
-        <v>85104.32041401151</v>
+        <v>84999.13079175673</v>
       </c>
       <c r="F6" t="n">
-        <v>235770.0739857592</v>
+        <v>235664.8843635046</v>
       </c>
       <c r="G6" t="n">
-        <v>220601.8756115572</v>
+        <v>220578.6512721746</v>
       </c>
       <c r="H6" t="n">
-        <v>249691.6847841651</v>
+        <v>249668.4604447824</v>
       </c>
       <c r="I6" t="n">
-        <v>249691.6847841651</v>
+        <v>249668.4604447825</v>
       </c>
       <c r="J6" t="n">
-        <v>75040.3360664589</v>
+        <v>75017.11172707626</v>
       </c>
       <c r="K6" t="n">
-        <v>249691.6847841651</v>
+        <v>249668.4604447825</v>
       </c>
       <c r="L6" t="n">
-        <v>249691.6847841651</v>
+        <v>249668.4604447824</v>
       </c>
       <c r="M6" t="n">
-        <v>123940.5964484746</v>
+        <v>123917.3721090917</v>
       </c>
       <c r="N6" t="n">
-        <v>249691.6847841652</v>
+        <v>249668.4604447824</v>
       </c>
       <c r="O6" t="n">
-        <v>235770.0739857592</v>
+        <v>235664.8843635047</v>
       </c>
       <c r="P6" t="n">
-        <v>235770.0739857592</v>
+        <v>235664.8843635046</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>667.515206607857</v>
@@ -26798,10 +26798,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.12624148567</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.12624148567</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26828,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.12624148567</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.12624148567</v>
+        <v>1172.126241485671</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>504.611034877813</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>106.1342618990755</v>
+        <v>106.1342618990748</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.611034877813</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.611034877813</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>106.1342618990755</v>
+        <v>106.1342618990748</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>215.4845050789319</v>
+        <v>226.4723296792265</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,16 +27435,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27539,13 +27539,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>26.97216184894955</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27587,10 +27587,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>208.2197249473429</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>328.8330305885846</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>83.94149472053158</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,13 +27776,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>33.58904338006388</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27839,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>161.926849064976</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>185.8757317238698</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>367.2261030860415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>73.62918697961771</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28022,13 +28022,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28578,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28763,7 +28763,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-8.810729923425242e-13</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -28988,7 +28988,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>2.922225424602705e-12</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -34698,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34713,13 +34713,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078572</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P2" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>469.6822035600076</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34774,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>540.0049805212327</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34795,13 +34795,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.5152066078572</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094345</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34871,13 +34871,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821543</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34950,16 +34950,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q5" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35029,13 +35029,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>540.0049805212334</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35102,13 +35102,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35175,19 +35175,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -35254,7 +35254,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35269,7 +35269,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
@@ -35421,19 +35421,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458546</v>
+        <v>559.8357612908239</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>39.34908037598234</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
@@ -35494,7 +35494,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35506,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>388.0185734358513</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35573,7 +35573,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35582,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35649,16 +35649,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>809.0782778761379</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35667,10 +35667,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157523</v>
+        <v>446.0407874304756</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35743,7 +35743,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35810,7 +35810,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35819,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35883,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>459.5978749662608</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -35895,7 +35895,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35907,7 +35907,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36059,7 +36059,7 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165107</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821539</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36220,10 +36220,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080445</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36293,13 +36293,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>583.0591140826364</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>305.8360165328637</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36454,13 +36454,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
         <v>661.3192390158824</v>
@@ -36931,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132081</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37168,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
@@ -37241,13 +37241,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,13 +37311,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>702.7389601124028</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>376.7818457160674</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37566,7 +37566,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908462</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37709,7 +37709,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
@@ -37782,10 +37782,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458944</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -37794,7 +37794,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>884.1022829978583</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37861,7 +37861,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37876,7 +37876,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960968</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -37952,13 +37952,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>39.3490803759822</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458944</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38098,7 +38098,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38180,7 +38180,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38189,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
